--- a/13C_Statistics_Summary_2.0.xlsx
+++ b/13C_Statistics_Summary_2.0.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FTrevisan\Documents\GitHub\13C-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5848F90-3C1A-4C72-97EB-9444BBC94E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6EDA36-2685-4A4B-A591-C29A53B4FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TwoWay Anova extended" sheetId="7" r:id="rId1"/>
-    <sheet name="OneWayAnova_Tr" sheetId="2" r:id="rId2"/>
-    <sheet name="HSD_Tr" sheetId="5" r:id="rId3"/>
-    <sheet name="OneWayAnova_Ti" sheetId="3" r:id="rId4"/>
-    <sheet name="HSD_Ti" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="TwoWay Anova extended" sheetId="7" r:id="rId2"/>
+    <sheet name="OneWayAnova_Tr" sheetId="2" r:id="rId3"/>
+    <sheet name="HSD_Tr" sheetId="5" r:id="rId4"/>
+    <sheet name="OneWayAnova_Ti" sheetId="3" r:id="rId5"/>
+    <sheet name="HSD_Ti" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="222">
   <si>
     <t>Treatment</t>
   </si>
@@ -643,19 +644,96 @@
     <t>abc</t>
   </si>
   <si>
-    <t>One-Way ANOVA Time</t>
-  </si>
-  <si>
-    <t>One-Way ANOVA Treatment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Two-Way ANOVA </t>
   </si>
   <si>
-    <t>HSD Tukey multiple comparison Treatment</t>
-  </si>
-  <si>
     <t>&lt;2.2E-16</t>
+  </si>
+  <si>
+    <t>Species_Tissue</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Barley_Root</t>
+  </si>
+  <si>
+    <t>Barley_Shoot</t>
+  </si>
+  <si>
+    <t>Cucumber_Root</t>
+  </si>
+  <si>
+    <t>Cucumber_Shoot</t>
+  </si>
+  <si>
+    <t>Maize_Root</t>
+  </si>
+  <si>
+    <t>Maize_Shoot</t>
+  </si>
+  <si>
+    <t>Tomato_Root</t>
+  </si>
+  <si>
+    <t>Tomato_Shoot</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P/Fe</t>
+  </si>
+  <si>
+    <t>Mean Fresh Weight (g)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Supp. Table 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table summarizing the statistical analyses performed on the δ13C results shown in the article main text (Figure 3). The table is divided in six sections: summary table for number of replicates (N), mean fresh weight, standard deviation (sd) and standard error (se), Two-Way Anova, One-Way Anova on treatments, Tukey.HSD multiple comparison on treatments, One-Way Anova on time and Tukey.HSD multiple comparison on time. BR= Barley Root; BS=Barley Shoot; CR= Cucumber Root; CS=Cucumber Shoot; MR= Maize Root; MS=Maize Shoot; TS=Tomato Shoot; TR= Tomato Root.</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary table</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA on treatments</t>
+  </si>
+  <si>
+    <t>Tukey.HSD multiple comparison on treatments</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA on time</t>
+  </si>
+  <si>
+    <t>Tukey.HSD multiple comparison on time</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1088,6 +1166,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,6 +1457,5223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0E1125-5619-4A85-B113-0F8D8B444993}">
+  <dimension ref="A1:G230"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="39" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="38">
+        <v>7</v>
+      </c>
+      <c r="E7" s="39">
+        <v>-27.37</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.38310137909783898</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0.14479871085982299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="38">
+        <v>7</v>
+      </c>
+      <c r="E8" s="39">
+        <v>-31.1642857142857</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.53593709652212895</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.20256518225308201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="38">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="38">
+        <v>7</v>
+      </c>
+      <c r="E9" s="39">
+        <v>-31.264285714285698</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.69854270074341496</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0.26402432376092699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="38">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39">
+        <v>-32.657142857142901</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.91323079021158604</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.34516879435812198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="38">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="38">
+        <v>7</v>
+      </c>
+      <c r="E11" s="39">
+        <v>-12.2071428571429</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.27517959503533201</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0.10400811062042201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="38">
+        <v>7</v>
+      </c>
+      <c r="E12" s="39">
+        <v>-13.42</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0.70873126077519599</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0.267875237484062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="38">
+        <v>7</v>
+      </c>
+      <c r="E13" s="39">
+        <v>-31.55</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0.77272245987806099</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0.29206163733020502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="38">
+        <v>7</v>
+      </c>
+      <c r="E14" s="39">
+        <v>-34.162857142857099</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.96141760412622301</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0.36338169808536203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="38">
+        <v>7</v>
+      </c>
+      <c r="E15" s="39">
+        <v>-33.171428571428599</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0.95844367894742999</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0.36225766002239002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="38">
+        <v>7</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-36.838571428571399</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0.64268780838570405</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0.24291315880595801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="38">
+        <v>2</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="38">
+        <v>7</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-28.737142857142899</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1.33276297324661</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.50373705482936604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="38">
+        <v>2</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="38">
+        <v>7</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-32.734285714285697</v>
+      </c>
+      <c r="F18" s="39">
+        <v>1.2243209974356799</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0.46274984058990898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="38">
+        <v>2</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="38">
+        <v>7</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-33.715714285714299</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0.32004463974353897</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0.120965503600095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="38">
+        <v>2</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="38">
+        <v>7</v>
+      </c>
+      <c r="E20" s="39">
+        <v>-34.65</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0.47321594788567101</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0.17885881636216999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="38">
+        <v>2</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="38">
+        <v>7</v>
+      </c>
+      <c r="E21" s="39">
+        <v>-13.431428571428601</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0.67777647670965402</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0.25617542883761502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="38">
+        <v>2</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="38">
+        <v>7</v>
+      </c>
+      <c r="E22" s="39">
+        <v>-15.9671428571429</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0.51305341780735603</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0.19391596468714001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="38">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="38">
+        <v>7</v>
+      </c>
+      <c r="E23" s="39">
+        <v>-35.362857142857102</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0.62927774169318595</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0.23784463001550199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="38">
+        <v>3</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="38">
+        <v>7</v>
+      </c>
+      <c r="E24" s="39">
+        <v>-38.301428571428602</v>
+      </c>
+      <c r="F24" s="39">
+        <v>0.24996190185896699</v>
+      </c>
+      <c r="G24" s="39">
+        <v>9.4476718508508695E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="38">
+        <v>4</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="38">
+        <v>7</v>
+      </c>
+      <c r="E25" s="39">
+        <v>-31.5042857142857</v>
+      </c>
+      <c r="F25" s="39">
+        <v>1.55432576103871</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0.58747991715566295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="38">
+        <v>4</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="38">
+        <v>7</v>
+      </c>
+      <c r="E26" s="39">
+        <v>-35.515714285714303</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0.52867309189634204</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0.19981964657276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="38">
+        <v>4</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="38">
+        <v>7</v>
+      </c>
+      <c r="E27" s="39">
+        <v>-13.582857142857099</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0.62946311212318895</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0.237914693452389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="38">
+        <v>4</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="38">
+        <v>7</v>
+      </c>
+      <c r="E28" s="39">
+        <v>-16.3357142857143</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.528357743164519</v>
+      </c>
+      <c r="G28" s="39">
+        <v>0.19970045595552199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="38">
+        <v>5</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="38">
+        <v>7</v>
+      </c>
+      <c r="E29" s="39">
+        <v>-34.382857142857098</v>
+      </c>
+      <c r="F29" s="39">
+        <v>1.0762545282245299</v>
+      </c>
+      <c r="G29" s="39">
+        <v>0.40678597558418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="38">
+        <v>5</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="38">
+        <v>7</v>
+      </c>
+      <c r="E30" s="39">
+        <v>-35.228571428571399</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.77990231378527097</v>
+      </c>
+      <c r="G30" s="39">
+        <v>0.29477536702852702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="38">
+        <v>7</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="38">
+        <v>7</v>
+      </c>
+      <c r="E31" s="39">
+        <v>-34.001428571428598</v>
+      </c>
+      <c r="F31" s="39">
+        <v>0.93688185970677196</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0.35410805837597498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="38">
+        <v>7</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="38">
+        <v>7</v>
+      </c>
+      <c r="E32" s="39">
+        <v>-37.212857142857104</v>
+      </c>
+      <c r="F32" s="39">
+        <v>0.47730892462199997</v>
+      </c>
+      <c r="G32" s="39">
+        <v>0.18040581615735499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="38">
+        <v>7</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="38">
+        <v>7</v>
+      </c>
+      <c r="E33" s="39">
+        <v>-35.207142857142898</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0.52216581931139705</v>
+      </c>
+      <c r="G33" s="39">
+        <v>0.19736012871946401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="38">
+        <v>7</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="38">
+        <v>7</v>
+      </c>
+      <c r="E34" s="39">
+        <v>-36.172857142857097</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0.47821593050679101</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0.180748632158617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="38">
+        <v>7</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="38">
+        <v>7</v>
+      </c>
+      <c r="E35" s="39">
+        <v>-14.595714285714299</v>
+      </c>
+      <c r="F35" s="39">
+        <v>0.68104961010822995</v>
+      </c>
+      <c r="G35" s="39">
+        <v>0.25741255697769699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="38">
+        <v>7</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="38">
+        <v>7</v>
+      </c>
+      <c r="E36" s="39">
+        <v>-16.8485714285714</v>
+      </c>
+      <c r="F36" s="39">
+        <v>0.35395049425160102</v>
+      </c>
+      <c r="G36" s="39">
+        <v>0.13378071203116201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="38">
+        <v>7</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="38">
+        <v>7</v>
+      </c>
+      <c r="E37" s="39">
+        <v>-36.355714285714299</v>
+      </c>
+      <c r="F37" s="39">
+        <v>0.70556967864880005</v>
+      </c>
+      <c r="G37" s="39">
+        <v>0.26668027176178399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="38">
+        <v>7</v>
+      </c>
+      <c r="E38" s="39">
+        <v>-37.914285714285697</v>
+      </c>
+      <c r="F38" s="39">
+        <v>0.14751916743903101</v>
+      </c>
+      <c r="G38" s="39">
+        <v>5.57570043798533E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="38">
+        <v>9</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="38">
+        <v>7</v>
+      </c>
+      <c r="E39" s="39">
+        <v>-34.751428571428598</v>
+      </c>
+      <c r="F39" s="39">
+        <v>1.2172294849565599</v>
+      </c>
+      <c r="G39" s="39">
+        <v>0.46006950081289999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="38">
+        <v>9</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="38">
+        <v>7</v>
+      </c>
+      <c r="E40" s="39">
+        <v>-38.112857142857102</v>
+      </c>
+      <c r="F40" s="39">
+        <v>0.480961338907619</v>
+      </c>
+      <c r="G40" s="39">
+        <v>0.181786298998031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="38">
+        <v>9</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="38">
+        <v>7</v>
+      </c>
+      <c r="E41" s="39">
+        <v>-34.177142857142897</v>
+      </c>
+      <c r="F41" s="39">
+        <v>1.10265912359947</v>
+      </c>
+      <c r="G41" s="39">
+        <v>0.41676597456008802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="38">
+        <v>9</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="38">
+        <v>7</v>
+      </c>
+      <c r="E42" s="39">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="F42" s="39">
+        <v>0.63300868872393801</v>
+      </c>
+      <c r="G42" s="39">
+        <v>0.23925479544380501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="38">
+        <v>9</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="38">
+        <v>7</v>
+      </c>
+      <c r="E43" s="39">
+        <v>-15.66</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0.41319890287043698</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0.15617450557141599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="38">
+        <v>9</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="38">
+        <v>7</v>
+      </c>
+      <c r="E44" s="39">
+        <v>-17.777142857142898</v>
+      </c>
+      <c r="F44" s="39">
+        <v>0.32226874322084498</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0.121806135698813</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="38">
+        <v>9</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="38">
+        <v>7</v>
+      </c>
+      <c r="E45" s="39">
+        <v>-37.380000000000003</v>
+      </c>
+      <c r="F45" s="39">
+        <v>0.280356915377523</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0.10596495377515799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="38">
+        <v>9</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="38">
+        <v>7</v>
+      </c>
+      <c r="E46" s="39">
+        <v>-38.744285714285702</v>
+      </c>
+      <c r="F46" s="39">
+        <v>0.13745995087747601</v>
+      </c>
+      <c r="G46" s="39">
+        <v>5.1954977893279498E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="38">
+        <v>11</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="38">
+        <v>7</v>
+      </c>
+      <c r="E47" s="39">
+        <v>-34.874285714285698</v>
+      </c>
+      <c r="F47" s="39">
+        <v>0.88601838097669805</v>
+      </c>
+      <c r="G47" s="39">
+        <v>0.33488347044234701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="38">
+        <v>11</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="38">
+        <v>7</v>
+      </c>
+      <c r="E48" s="39">
+        <v>-38.237142857142899</v>
+      </c>
+      <c r="F48" s="39">
+        <v>0.30570761007397601</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0.115546615736521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="38">
+        <v>11</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="38">
+        <v>7</v>
+      </c>
+      <c r="E49" s="39">
+        <v>-15.99</v>
+      </c>
+      <c r="F49" s="39">
+        <v>0.39454615277134197</v>
+      </c>
+      <c r="G49" s="39">
+        <v>0.149124428710038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="38">
+        <v>11</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="38">
+        <v>7</v>
+      </c>
+      <c r="E50" s="39">
+        <v>-17.858571428571398</v>
+      </c>
+      <c r="F50" s="39">
+        <v>0.39930892683187003</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0.150924588097888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="38">
+        <v>11</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="38">
+        <v>7</v>
+      </c>
+      <c r="E51" s="39">
+        <v>-37.972857142857102</v>
+      </c>
+      <c r="F51" s="39">
+        <v>8.8828352402126998E-2</v>
+      </c>
+      <c r="G51" s="39">
+        <v>3.3573961403947902E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="38">
+        <v>11</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="38">
+        <v>7</v>
+      </c>
+      <c r="E52" s="39">
+        <v>-39.354285714285702</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0.23244046856898901</v>
+      </c>
+      <c r="G52" s="39">
+        <v>8.7854239208695603E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="38">
+        <v>12</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="38">
+        <v>7</v>
+      </c>
+      <c r="E53" s="39">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="F53" s="39">
+        <v>0.54564946012374405</v>
+      </c>
+      <c r="G53" s="39">
+        <v>0.20623611064344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="38">
+        <v>12</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="38">
+        <v>7</v>
+      </c>
+      <c r="E54" s="39">
+        <v>-36.212857142857104</v>
+      </c>
+      <c r="F54" s="39">
+        <v>0.62662360541009199</v>
+      </c>
+      <c r="G54" s="39">
+        <v>0.23684146079396701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="38">
+        <v>14</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="38">
+        <v>7</v>
+      </c>
+      <c r="E55" s="39">
+        <v>-36.549999999999997</v>
+      </c>
+      <c r="F55" s="39">
+        <v>0.85168460516007205</v>
+      </c>
+      <c r="G55" s="39">
+        <v>0.32190652295939798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="38">
+        <v>14</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="38">
+        <v>7</v>
+      </c>
+      <c r="E56" s="39">
+        <v>-39.328571428571401</v>
+      </c>
+      <c r="F56" s="39">
+        <v>0.36333770202703403</v>
+      </c>
+      <c r="G56" s="39">
+        <v>0.13732874307103099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="38">
+        <v>14</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="38">
+        <v>7</v>
+      </c>
+      <c r="E57" s="39">
+        <v>-34.6885714285714</v>
+      </c>
+      <c r="F57" s="39">
+        <v>1.1162351689410901</v>
+      </c>
+      <c r="G57" s="39">
+        <v>0.42189723738318602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="38">
+        <v>14</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="38">
+        <v>7</v>
+      </c>
+      <c r="E58" s="39">
+        <v>-35.882857142857098</v>
+      </c>
+      <c r="F58" s="39">
+        <v>0.70234640754436495</v>
+      </c>
+      <c r="G58" s="39">
+        <v>0.26546198979743002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="38">
+        <v>14</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="38">
+        <v>7</v>
+      </c>
+      <c r="E59" s="39">
+        <v>-16.178571428571399</v>
+      </c>
+      <c r="F59" s="39">
+        <v>0.29902221608818003</v>
+      </c>
+      <c r="G59" s="39">
+        <v>0.11301977432182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="38">
+        <v>14</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="38">
+        <v>7</v>
+      </c>
+      <c r="E60" s="39">
+        <v>-17.855714285714299</v>
+      </c>
+      <c r="F60" s="39">
+        <v>0.262224912550095</v>
+      </c>
+      <c r="G60" s="39">
+        <v>9.9111700881887296E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="38">
+        <v>14</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="38">
+        <v>7</v>
+      </c>
+      <c r="E61" s="39">
+        <v>-37.514285714285698</v>
+      </c>
+      <c r="F61" s="39">
+        <v>0.28976180694133002</v>
+      </c>
+      <c r="G61" s="39">
+        <v>0.109519668658781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="38">
+        <v>14</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="38">
+        <v>7</v>
+      </c>
+      <c r="E62" s="39">
+        <v>-39.022857142857099</v>
+      </c>
+      <c r="F62" s="39">
+        <v>0.25895393964398999</v>
+      </c>
+      <c r="G62" s="39">
+        <v>9.7875389331203905E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="38">
+        <v>0</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="38">
+        <v>7</v>
+      </c>
+      <c r="E63" s="39">
+        <v>-27.714285714285701</v>
+      </c>
+      <c r="F63" s="39">
+        <v>1.06128628156053</v>
+      </c>
+      <c r="G63" s="39">
+        <v>0.401128510121947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="38">
+        <v>7</v>
+      </c>
+      <c r="E64" s="39">
+        <v>-30.895714285714298</v>
+      </c>
+      <c r="F64" s="39">
+        <v>0.72140735470923101</v>
+      </c>
+      <c r="G64" s="39">
+        <v>0.27266635064765499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="38">
+        <v>0</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="38">
+        <v>7</v>
+      </c>
+      <c r="E65" s="39">
+        <v>-31.5171428571429</v>
+      </c>
+      <c r="F65" s="39">
+        <v>1.44389189675814</v>
+      </c>
+      <c r="G65" s="39">
+        <v>0.54573983984048302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="38">
+        <v>0</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="38">
+        <v>7</v>
+      </c>
+      <c r="E66" s="39">
+        <v>-32.585714285714303</v>
+      </c>
+      <c r="F66" s="39">
+        <v>0.87641042787910695</v>
+      </c>
+      <c r="G66" s="39">
+        <v>0.33125200551311801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="38">
+        <v>0</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="38">
+        <v>7</v>
+      </c>
+      <c r="E67" s="39">
+        <v>-12.4828571428571</v>
+      </c>
+      <c r="F67" s="39">
+        <v>0.357198090967009</v>
+      </c>
+      <c r="G67" s="39">
+        <v>0.135008188212248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="38">
+        <v>0</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="38">
+        <v>7</v>
+      </c>
+      <c r="E68" s="39">
+        <v>-13.2557142857143</v>
+      </c>
+      <c r="F68" s="39">
+        <v>0.73900512273499996</v>
+      </c>
+      <c r="G68" s="39">
+        <v>0.27931768176565303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="38">
+        <v>0</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="38">
+        <v>7</v>
+      </c>
+      <c r="E69" s="39">
+        <v>-33.181428571428597</v>
+      </c>
+      <c r="F69" s="39">
+        <v>0.543090801844056</v>
+      </c>
+      <c r="G69" s="39">
+        <v>0.20526902871514699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="38">
+        <v>0</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="38">
+        <v>7</v>
+      </c>
+      <c r="E70" s="39">
+        <v>-35.501428571428598</v>
+      </c>
+      <c r="F70" s="39">
+        <v>1.24964566406413</v>
+      </c>
+      <c r="G70" s="39">
+        <v>0.47232166486626498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="38">
+        <v>1</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="38">
+        <v>7</v>
+      </c>
+      <c r="E71" s="39">
+        <v>-34.251428571428598</v>
+      </c>
+      <c r="F71" s="39">
+        <v>0.78424971727608495</v>
+      </c>
+      <c r="G71" s="39">
+        <v>0.29641853109789101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="38">
+        <v>1</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="38">
+        <v>7</v>
+      </c>
+      <c r="E72" s="39">
+        <v>-37.450000000000003</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0.19604421270043401</v>
+      </c>
+      <c r="G72" s="39">
+        <v>7.4097747539828299E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="38">
+        <v>2</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="38">
+        <v>7</v>
+      </c>
+      <c r="E73" s="39">
+        <v>-28.7828571428571</v>
+      </c>
+      <c r="F73" s="39">
+        <v>1.06795309331628</v>
+      </c>
+      <c r="G73" s="39">
+        <v>0.40364832811386098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="38">
+        <v>2</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="38">
+        <v>7</v>
+      </c>
+      <c r="E74" s="39">
+        <v>-33.395714285714298</v>
+      </c>
+      <c r="F74" s="39">
+        <v>0.81726897128703602</v>
+      </c>
+      <c r="G74" s="39">
+        <v>0.30889863603929801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="38">
+        <v>2</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="38">
+        <v>7</v>
+      </c>
+      <c r="E75" s="39">
+        <v>-34.044285714285699</v>
+      </c>
+      <c r="F75" s="39">
+        <v>0.77487326152640601</v>
+      </c>
+      <c r="G75" s="39">
+        <v>0.29287456394176897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="38">
+        <v>2</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="38">
+        <v>7</v>
+      </c>
+      <c r="E76" s="39">
+        <v>-34.787142857142896</v>
+      </c>
+      <c r="F76" s="39">
+        <v>0.69098273701818602</v>
+      </c>
+      <c r="G76" s="39">
+        <v>0.26116692605555197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="38">
+        <v>2</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="38">
+        <v>7</v>
+      </c>
+      <c r="E77" s="39">
+        <v>-13.431428571428601</v>
+      </c>
+      <c r="F77" s="39">
+        <v>0.71815570668735795</v>
+      </c>
+      <c r="G77" s="39">
+        <v>0.27143734321665702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="38">
+        <v>2</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="38">
+        <v>7</v>
+      </c>
+      <c r="E78" s="39">
+        <v>-15.9714285714286</v>
+      </c>
+      <c r="F78" s="39">
+        <v>0.34619014868655501</v>
+      </c>
+      <c r="G78" s="39">
+        <v>0.13084757710930001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="38">
+        <v>3</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="38">
+        <v>7</v>
+      </c>
+      <c r="E79" s="39">
+        <v>-36.222857142857102</v>
+      </c>
+      <c r="F79" s="39">
+        <v>0.33469958100333702</v>
+      </c>
+      <c r="G79" s="39">
+        <v>0.12650455075033501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="38">
+        <v>3</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="38">
+        <v>7</v>
+      </c>
+      <c r="E80" s="39">
+        <v>-38.172857142857097</v>
+      </c>
+      <c r="F80" s="39">
+        <v>0.23278847950548601</v>
+      </c>
+      <c r="G80" s="39">
+        <v>8.7985774978910206E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" s="38">
+        <v>4</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="38">
+        <v>7</v>
+      </c>
+      <c r="E81" s="39">
+        <v>-31.698571428571402</v>
+      </c>
+      <c r="F81" s="39">
+        <v>1.2329021125164901</v>
+      </c>
+      <c r="G81" s="39">
+        <v>0.46599319722925697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="38">
+        <v>4</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="38">
+        <v>7</v>
+      </c>
+      <c r="E82" s="39">
+        <v>-35.33</v>
+      </c>
+      <c r="F82" s="39">
+        <v>0.74117024584998903</v>
+      </c>
+      <c r="G82" s="39">
+        <v>0.28013602138281002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="38">
+        <v>4</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="38">
+        <v>7</v>
+      </c>
+      <c r="E83" s="39">
+        <v>-13.6357142857143</v>
+      </c>
+      <c r="F83" s="39">
+        <v>0.97892555288706096</v>
+      </c>
+      <c r="G83" s="39">
+        <v>0.36999908071222398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="38">
+        <v>4</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="38">
+        <v>7</v>
+      </c>
+      <c r="E84" s="39">
+        <v>-15.2457142857143</v>
+      </c>
+      <c r="F84" s="39">
+        <v>0.69720530555585902</v>
+      </c>
+      <c r="G84" s="39">
+        <v>0.26351883589365699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" s="38">
+        <v>5</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="38">
+        <v>7</v>
+      </c>
+      <c r="E85" s="39">
+        <v>-33.924285714285702</v>
+      </c>
+      <c r="F85" s="39">
+        <v>0.79552618106628203</v>
+      </c>
+      <c r="G85" s="39">
+        <v>0.30068063379176002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="38">
+        <v>5</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="38">
+        <v>7</v>
+      </c>
+      <c r="E86" s="39">
+        <v>-35.402857142857101</v>
+      </c>
+      <c r="F86" s="39">
+        <v>0.35998677224375403</v>
+      </c>
+      <c r="G86" s="39">
+        <v>0.136062210661403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="38">
+        <v>7</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="38">
+        <v>7</v>
+      </c>
+      <c r="E87" s="39">
+        <v>-33.32</v>
+      </c>
+      <c r="F87" s="39">
+        <v>1.79457515863783</v>
+      </c>
+      <c r="G87" s="39">
+        <v>0.67828565410999897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="38">
+        <v>7</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="38">
+        <v>7</v>
+      </c>
+      <c r="E88" s="39">
+        <v>-37.161428571428601</v>
+      </c>
+      <c r="F88" s="39">
+        <v>0.61181229614505495</v>
+      </c>
+      <c r="G88" s="39">
+        <v>0.23124331209303101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="38">
+        <v>7</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="38">
+        <v>7</v>
+      </c>
+      <c r="E89" s="39">
+        <v>-34.950000000000003</v>
+      </c>
+      <c r="F89" s="39">
+        <v>0.22905603390146001</v>
+      </c>
+      <c r="G89" s="39">
+        <v>8.65750431431489E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="38">
+        <v>7</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="38">
+        <v>7</v>
+      </c>
+      <c r="E90" s="39">
+        <v>-35.997142857142897</v>
+      </c>
+      <c r="F90" s="39">
+        <v>0.59932501715719799</v>
+      </c>
+      <c r="G90" s="39">
+        <v>0.22652356427106701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="38">
+        <v>7</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="38">
+        <v>7</v>
+      </c>
+      <c r="E91" s="39">
+        <v>-14.47</v>
+      </c>
+      <c r="F91" s="39">
+        <v>0.58580429041333104</v>
+      </c>
+      <c r="G91" s="39">
+        <v>0.22141320991261901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="38">
+        <v>7</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="38">
+        <v>7</v>
+      </c>
+      <c r="E92" s="39">
+        <v>-16.115714285714301</v>
+      </c>
+      <c r="F92" s="39">
+        <v>0.379642689154647</v>
+      </c>
+      <c r="G92" s="39">
+        <v>0.143491448938142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="38">
+        <v>7</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="38">
+        <v>7</v>
+      </c>
+      <c r="E93" s="39">
+        <v>-37.020000000000003</v>
+      </c>
+      <c r="F93" s="39">
+        <v>0.20992061991778399</v>
+      </c>
+      <c r="G93" s="39">
+        <v>7.9342536480995707E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="38">
+        <v>7</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="38">
+        <v>7</v>
+      </c>
+      <c r="E94" s="39">
+        <v>-38.018571428571398</v>
+      </c>
+      <c r="F94" s="39">
+        <v>0.12966991059719901</v>
+      </c>
+      <c r="G94" s="39">
+        <v>4.9010619424024099E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="38">
+        <v>9</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="38">
+        <v>7</v>
+      </c>
+      <c r="E95" s="39">
+        <v>-34.927142857142897</v>
+      </c>
+      <c r="F95" s="39">
+        <v>1.5592489034330399</v>
+      </c>
+      <c r="G95" s="39">
+        <v>0.58934069007628498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="38">
+        <v>9</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="38">
+        <v>7</v>
+      </c>
+      <c r="E96" s="39">
+        <v>-37.9385714285714</v>
+      </c>
+      <c r="F96" s="39">
+        <v>0.51776534490148296</v>
+      </c>
+      <c r="G96" s="39">
+        <v>0.19569690572813001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="38">
+        <v>9</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="38">
+        <v>7</v>
+      </c>
+      <c r="E97" s="39">
+        <v>-34.361428571428597</v>
+      </c>
+      <c r="F97" s="39">
+        <v>0.88259897596867398</v>
+      </c>
+      <c r="G97" s="39">
+        <v>0.33359105683048401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="38">
+        <v>9</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="38">
+        <v>7</v>
+      </c>
+      <c r="E98" s="39">
+        <v>-36.408571428571399</v>
+      </c>
+      <c r="F98" s="39">
+        <v>0.496132662750215</v>
+      </c>
+      <c r="G98" s="39">
+        <v>0.18752052041905001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="38">
+        <v>9</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99" s="38">
+        <v>7</v>
+      </c>
+      <c r="E99" s="39">
+        <v>-15.262857142857101</v>
+      </c>
+      <c r="F99" s="39">
+        <v>0.45054464394827298</v>
+      </c>
+      <c r="G99" s="39">
+        <v>0.17028986891703901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="38">
+        <v>9</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="38">
+        <v>7</v>
+      </c>
+      <c r="E100" s="39">
+        <v>-16.612857142857099</v>
+      </c>
+      <c r="F100" s="39">
+        <v>0.25972512942944598</v>
+      </c>
+      <c r="G100" s="39">
+        <v>9.8166871672053901E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="38">
+        <v>9</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="38">
+        <v>7</v>
+      </c>
+      <c r="E101" s="39">
+        <v>-37.682857142857102</v>
+      </c>
+      <c r="F101" s="39">
+        <v>0.186789925291693</v>
+      </c>
+      <c r="G101" s="39">
+        <v>7.0599955676307502E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="38">
+        <v>9</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" s="38">
+        <v>7</v>
+      </c>
+      <c r="E102" s="39">
+        <v>-38.58</v>
+      </c>
+      <c r="F102" s="39">
+        <v>0.25852143689321599</v>
+      </c>
+      <c r="G102" s="39">
+        <v>9.77119186569326E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="38">
+        <v>11</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="38">
+        <v>7</v>
+      </c>
+      <c r="E103" s="39">
+        <v>-34.305714285714302</v>
+      </c>
+      <c r="F103" s="39">
+        <v>0.57413288655900396</v>
+      </c>
+      <c r="G103" s="39">
+        <v>0.21700183390554001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="38">
+        <v>11</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="38">
+        <v>7</v>
+      </c>
+      <c r="E104" s="39">
+        <v>-38.207142857142898</v>
+      </c>
+      <c r="F104" s="39">
+        <v>0.60453051441357697</v>
+      </c>
+      <c r="G104" s="39">
+        <v>0.228491057298324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="38">
+        <v>11</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="38">
+        <v>7</v>
+      </c>
+      <c r="E105" s="39">
+        <v>-15.1971428571429</v>
+      </c>
+      <c r="F105" s="39">
+        <v>1.19534812621978</v>
+      </c>
+      <c r="G105" s="39">
+        <v>0.451799124589227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="38">
+        <v>11</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="38">
+        <v>7</v>
+      </c>
+      <c r="E106" s="39">
+        <v>-16.342857142857099</v>
+      </c>
+      <c r="F106" s="39">
+        <v>0.48900287271529302</v>
+      </c>
+      <c r="G106" s="39">
+        <v>0.18482571308583401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="38">
+        <v>11</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="38">
+        <v>7</v>
+      </c>
+      <c r="E107" s="39">
+        <v>-37.987142857142899</v>
+      </c>
+      <c r="F107" s="39">
+        <v>0.32221702239920502</v>
+      </c>
+      <c r="G107" s="39">
+        <v>0.121786587065718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="38">
+        <v>11</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" s="38">
+        <v>7</v>
+      </c>
+      <c r="E108" s="39">
+        <v>-39.034285714285701</v>
+      </c>
+      <c r="F108" s="39">
+        <v>0.28570714276785403</v>
+      </c>
+      <c r="G108" s="39">
+        <v>0.107987149651224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="38">
+        <v>12</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="38">
+        <v>7</v>
+      </c>
+      <c r="E109" s="39">
+        <v>-34.31</v>
+      </c>
+      <c r="F109" s="39">
+        <v>0.67611636079400705</v>
+      </c>
+      <c r="G109" s="39">
+        <v>0.25554796400042301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="38">
+        <v>12</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="38">
+        <v>7</v>
+      </c>
+      <c r="E110" s="39">
+        <v>-36.1314285714286</v>
+      </c>
+      <c r="F110" s="39">
+        <v>0.35760446359204101</v>
+      </c>
+      <c r="G110" s="39">
+        <v>0.13516178262731299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="38">
+        <v>14</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" s="38">
+        <v>7</v>
+      </c>
+      <c r="E111" s="39">
+        <v>-35.748571428571402</v>
+      </c>
+      <c r="F111" s="39">
+        <v>1.3253984126974601</v>
+      </c>
+      <c r="G111" s="39">
+        <v>0.50095351258246301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="38">
+        <v>14</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" s="38">
+        <v>7</v>
+      </c>
+      <c r="E112" s="39">
+        <v>-39.3157142857143</v>
+      </c>
+      <c r="F112" s="39">
+        <v>0.23894609872361999</v>
+      </c>
+      <c r="G112" s="39">
+        <v>9.0313136281683998E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="38">
+        <v>14</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="38">
+        <v>7</v>
+      </c>
+      <c r="E113" s="39">
+        <v>-34.6185714285714</v>
+      </c>
+      <c r="F113" s="39">
+        <v>0.62892576592760097</v>
+      </c>
+      <c r="G113" s="39">
+        <v>0.23771159568075001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="38">
+        <v>14</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="38">
+        <v>7</v>
+      </c>
+      <c r="E114" s="39">
+        <v>-36.388571428571403</v>
+      </c>
+      <c r="F114" s="39">
+        <v>0.28445436490636999</v>
+      </c>
+      <c r="G114" s="39">
+        <v>0.10751364412701001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="38">
+        <v>14</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" s="38">
+        <v>7</v>
+      </c>
+      <c r="E115" s="39">
+        <v>-16.411428571428601</v>
+      </c>
+      <c r="F115" s="39">
+        <v>0.41257034032306</v>
+      </c>
+      <c r="G115" s="39">
+        <v>0.155936931259443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="38">
+        <v>14</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="38">
+        <v>7</v>
+      </c>
+      <c r="E116" s="39">
+        <v>-17.149999999999999</v>
+      </c>
+      <c r="F116" s="39">
+        <v>0.22375581929117899</v>
+      </c>
+      <c r="G116" s="39">
+        <v>8.4571750321138506E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="38">
+        <v>14</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="38">
+        <v>7</v>
+      </c>
+      <c r="E117" s="39">
+        <v>-38.14</v>
+      </c>
+      <c r="F117" s="39">
+        <v>0.127148207485071</v>
+      </c>
+      <c r="G117" s="39">
+        <v>4.8057505236162597E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" s="38">
+        <v>14</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="38">
+        <v>7</v>
+      </c>
+      <c r="E118" s="39">
+        <v>-39.112857142857102</v>
+      </c>
+      <c r="F118" s="39">
+        <v>0.21491969707422501</v>
+      </c>
+      <c r="G118" s="39">
+        <v>8.1232010043962202E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" s="38">
+        <v>0</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="38">
+        <v>7</v>
+      </c>
+      <c r="E119" s="39">
+        <v>-27.831428571428599</v>
+      </c>
+      <c r="F119" s="39">
+        <v>0.74834102233826905</v>
+      </c>
+      <c r="G119" s="39">
+        <v>0.28284632013927002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B120" s="38">
+        <v>0</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="38">
+        <v>7</v>
+      </c>
+      <c r="E120" s="39">
+        <v>-31.054285714285701</v>
+      </c>
+      <c r="F120" s="39">
+        <v>0.70568777663725901</v>
+      </c>
+      <c r="G120" s="39">
+        <v>0.26672490860575498</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="38">
+        <v>0</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="38">
+        <v>7</v>
+      </c>
+      <c r="E121" s="39">
+        <v>-31.54</v>
+      </c>
+      <c r="F121" s="39">
+        <v>1.39140217047409</v>
+      </c>
+      <c r="G121" s="39">
+        <v>0.52590058810713303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="38">
+        <v>0</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" s="38">
+        <v>7</v>
+      </c>
+      <c r="E122" s="39">
+        <v>-32.9828571428571</v>
+      </c>
+      <c r="F122" s="39">
+        <v>1.21269279272362</v>
+      </c>
+      <c r="G122" s="39">
+        <v>0.458354792323871</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B123" s="38">
+        <v>0</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="38">
+        <v>7</v>
+      </c>
+      <c r="E123" s="39">
+        <v>-12.484285714285701</v>
+      </c>
+      <c r="F123" s="39">
+        <v>0.51022404042594005</v>
+      </c>
+      <c r="G123" s="39">
+        <v>0.19284656055622901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="38">
+        <v>0</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" s="38">
+        <v>7</v>
+      </c>
+      <c r="E124" s="39">
+        <v>-13.5571428571429</v>
+      </c>
+      <c r="F124" s="39">
+        <v>0.77325533268371904</v>
+      </c>
+      <c r="G124" s="39">
+        <v>0.292263044319377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B125" s="38">
+        <v>0</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D125" s="38">
+        <v>7</v>
+      </c>
+      <c r="E125" s="39">
+        <v>-32.665714285714301</v>
+      </c>
+      <c r="F125" s="39">
+        <v>0.575234941650139</v>
+      </c>
+      <c r="G125" s="39">
+        <v>0.21741837157728799</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="38">
+        <v>0</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D126" s="38">
+        <v>7</v>
+      </c>
+      <c r="E126" s="39">
+        <v>-35.632857142857098</v>
+      </c>
+      <c r="F126" s="39">
+        <v>0.58999192891977403</v>
+      </c>
+      <c r="G126" s="39">
+        <v>0.22299598849385999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" s="38">
+        <v>1</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D127" s="38">
+        <v>7</v>
+      </c>
+      <c r="E127" s="39">
+        <v>-33.014285714285698</v>
+      </c>
+      <c r="F127" s="39">
+        <v>0.85476813898774395</v>
+      </c>
+      <c r="G127" s="39">
+        <v>0.32307198919758101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" s="38">
+        <v>1</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D128" s="38">
+        <v>7</v>
+      </c>
+      <c r="E128" s="39">
+        <v>-37.205714285714301</v>
+      </c>
+      <c r="F128" s="39">
+        <v>0.46725643005588602</v>
+      </c>
+      <c r="G128" s="39">
+        <v>0.17660633034624601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B129" s="38">
+        <v>2</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D129" s="38">
+        <v>7</v>
+      </c>
+      <c r="E129" s="39">
+        <v>-29.84</v>
+      </c>
+      <c r="F129" s="39">
+        <v>0.70327803890068996</v>
+      </c>
+      <c r="G129" s="39">
+        <v>0.26581411335206201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" s="38">
+        <v>2</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="38">
+        <v>7</v>
+      </c>
+      <c r="E130" s="39">
+        <v>-33.562857142857098</v>
+      </c>
+      <c r="F130" s="39">
+        <v>0.736290574110392</v>
+      </c>
+      <c r="G130" s="39">
+        <v>0.27829167882529598</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B131" s="38">
+        <v>2</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="38">
+        <v>7</v>
+      </c>
+      <c r="E131" s="39">
+        <v>-33.322857142857103</v>
+      </c>
+      <c r="F131" s="39">
+        <v>1.0213343279865901</v>
+      </c>
+      <c r="G131" s="39">
+        <v>0.38602809104368302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B132" s="38">
+        <v>2</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" s="38">
+        <v>7</v>
+      </c>
+      <c r="E132" s="39">
+        <v>-34.575714285714298</v>
+      </c>
+      <c r="F132" s="39">
+        <v>0.82716095053818695</v>
+      </c>
+      <c r="G132" s="39">
+        <v>0.31263745276397698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="38">
+        <v>2</v>
+      </c>
+      <c r="C133" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="38">
+        <v>7</v>
+      </c>
+      <c r="E133" s="39">
+        <v>-13.2171428571429</v>
+      </c>
+      <c r="F133" s="39">
+        <v>0.73320561658410399</v>
+      </c>
+      <c r="G133" s="39">
+        <v>0.277125674479616</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B134" s="38">
+        <v>2</v>
+      </c>
+      <c r="C134" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D134" s="38">
+        <v>7</v>
+      </c>
+      <c r="E134" s="39">
+        <v>-15.8214285714286</v>
+      </c>
+      <c r="F134" s="39">
+        <v>0.59998412677416102</v>
+      </c>
+      <c r="G134" s="39">
+        <v>0.226772684290097</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" s="38">
+        <v>3</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" s="38">
+        <v>7</v>
+      </c>
+      <c r="E135" s="39">
+        <v>-35.2542857142857</v>
+      </c>
+      <c r="F135" s="39">
+        <v>0.53919251796419798</v>
+      </c>
+      <c r="G135" s="39">
+        <v>0.203795615902856</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B136" s="38">
+        <v>3</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="38">
+        <v>7</v>
+      </c>
+      <c r="E136" s="39">
+        <v>-38.270000000000003</v>
+      </c>
+      <c r="F136" s="39">
+        <v>0.20615528128088401</v>
+      </c>
+      <c r="G136" s="39">
+        <v>7.7919372247398394E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" s="38">
+        <v>4</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="38">
+        <v>7</v>
+      </c>
+      <c r="E137" s="39">
+        <v>-33.012857142857101</v>
+      </c>
+      <c r="F137" s="39">
+        <v>0.91366869060424505</v>
+      </c>
+      <c r="G137" s="39">
+        <v>0.345334305149264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="38">
+        <v>4</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D138" s="38">
+        <v>7</v>
+      </c>
+      <c r="E138" s="39">
+        <v>-35.409999999999997</v>
+      </c>
+      <c r="F138" s="39">
+        <v>0.380219235003527</v>
+      </c>
+      <c r="G138" s="39">
+        <v>0.14370936278607899</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" s="38">
+        <v>4</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" s="38">
+        <v>7</v>
+      </c>
+      <c r="E139" s="39">
+        <v>-13.2814285714286</v>
+      </c>
+      <c r="F139" s="39">
+        <v>0.81181747890004097</v>
+      </c>
+      <c r="G139" s="39">
+        <v>0.30683816559213301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="38">
+        <v>4</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D140" s="38">
+        <v>7</v>
+      </c>
+      <c r="E140" s="39">
+        <v>-16.2014285714286</v>
+      </c>
+      <c r="F140" s="39">
+        <v>0.32349284234372</v>
+      </c>
+      <c r="G140" s="39">
+        <v>0.12226880167870099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B141" s="38">
+        <v>5</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" s="38">
+        <v>7</v>
+      </c>
+      <c r="E141" s="39">
+        <v>-34.147142857142903</v>
+      </c>
+      <c r="F141" s="39">
+        <v>0.64634135165340001</v>
+      </c>
+      <c r="G141" s="39">
+        <v>0.24429406836174899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="38">
+        <v>5</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" s="38">
+        <v>7</v>
+      </c>
+      <c r="E142" s="39">
+        <v>-35.32</v>
+      </c>
+      <c r="F142" s="39">
+        <v>0.36249137920783903</v>
+      </c>
+      <c r="G142" s="39">
+        <v>0.13700886311267901</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B143" s="38">
+        <v>7</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="38">
+        <v>7</v>
+      </c>
+      <c r="E143" s="39">
+        <v>-34.652857142857101</v>
+      </c>
+      <c r="F143" s="39">
+        <v>0.99809342057268102</v>
+      </c>
+      <c r="G143" s="39">
+        <v>0.37724385372073099</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B144" s="38">
+        <v>7</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="38">
+        <v>7</v>
+      </c>
+      <c r="E144" s="39">
+        <v>-37.44</v>
+      </c>
+      <c r="F144" s="39">
+        <v>0.34151622704248602</v>
+      </c>
+      <c r="G144" s="39">
+        <v>0.129081000778213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B145" s="38">
+        <v>7</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="38">
+        <v>7</v>
+      </c>
+      <c r="E145" s="39">
+        <v>-34.822857142857103</v>
+      </c>
+      <c r="F145" s="39">
+        <v>0.58508444648940106</v>
+      </c>
+      <c r="G145" s="39">
+        <v>0.221141134483262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="38">
+        <v>7</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" s="38">
+        <v>7</v>
+      </c>
+      <c r="E146" s="39">
+        <v>-35.968571428571401</v>
+      </c>
+      <c r="F146" s="39">
+        <v>0.44322411830542202</v>
+      </c>
+      <c r="G146" s="39">
+        <v>0.16752297030028801</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B147" s="38">
+        <v>7</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="38">
+        <v>7</v>
+      </c>
+      <c r="E147" s="39">
+        <v>-14.8857142857143</v>
+      </c>
+      <c r="F147" s="39">
+        <v>0.57734614524440298</v>
+      </c>
+      <c r="G147" s="39">
+        <v>0.21821633153121001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="38">
+        <v>7</v>
+      </c>
+      <c r="C148" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="38">
+        <v>7</v>
+      </c>
+      <c r="E148" s="39">
+        <v>-16.862857142857099</v>
+      </c>
+      <c r="F148" s="39">
+        <v>0.67625720663354805</v>
+      </c>
+      <c r="G148" s="39">
+        <v>0.25560119872394099</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="38">
+        <v>7</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="38">
+        <v>7</v>
+      </c>
+      <c r="E149" s="39">
+        <v>-35.461428571428598</v>
+      </c>
+      <c r="F149" s="39">
+        <v>0.66084361668573899</v>
+      </c>
+      <c r="G149" s="39">
+        <v>0.24977540932213699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="38">
+        <v>7</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" s="38">
+        <v>7</v>
+      </c>
+      <c r="E150" s="39">
+        <v>-36.852857142857097</v>
+      </c>
+      <c r="F150" s="39">
+        <v>0.78214905411765701</v>
+      </c>
+      <c r="G150" s="39">
+        <v>0.29562455505424601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B151" s="38">
+        <v>9</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" s="38">
+        <v>7</v>
+      </c>
+      <c r="E151" s="39">
+        <v>-35.181428571428597</v>
+      </c>
+      <c r="F151" s="39">
+        <v>1.6433140151477299</v>
+      </c>
+      <c r="G151" s="39">
+        <v>0.62111431572398801</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" s="38">
+        <v>9</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="38">
+        <v>7</v>
+      </c>
+      <c r="E152" s="39">
+        <v>-38.155714285714303</v>
+      </c>
+      <c r="F152" s="39">
+        <v>0.34146044880079102</v>
+      </c>
+      <c r="G152" s="39">
+        <v>0.12905991858448501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B153" s="38">
+        <v>9</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D153" s="38">
+        <v>7</v>
+      </c>
+      <c r="E153" s="39">
+        <v>-34.2328571428571</v>
+      </c>
+      <c r="F153" s="39">
+        <v>0.79826299521136002</v>
+      </c>
+      <c r="G153" s="39">
+        <v>0.30171505230782902</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154" s="38">
+        <v>9</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" s="38">
+        <v>7</v>
+      </c>
+      <c r="E154" s="39">
+        <v>-36.277142857142898</v>
+      </c>
+      <c r="F154" s="39">
+        <v>0.63450017824306004</v>
+      </c>
+      <c r="G154" s="39">
+        <v>0.23981852549389901</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155" s="38">
+        <v>9</v>
+      </c>
+      <c r="C155" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" s="38">
+        <v>7</v>
+      </c>
+      <c r="E155" s="39">
+        <v>-15.765714285714299</v>
+      </c>
+      <c r="F155" s="39">
+        <v>0.29096718846272801</v>
+      </c>
+      <c r="G155" s="39">
+        <v>0.109975260050291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" s="38">
+        <v>9</v>
+      </c>
+      <c r="C156" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D156" s="38">
+        <v>7</v>
+      </c>
+      <c r="E156" s="39">
+        <v>-17.882857142857102</v>
+      </c>
+      <c r="F156" s="39">
+        <v>0.16265651802846001</v>
+      </c>
+      <c r="G156" s="39">
+        <v>6.1478385118142902E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B157" s="38">
+        <v>9</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" s="38">
+        <v>7</v>
+      </c>
+      <c r="E157" s="39">
+        <v>-35.301428571428602</v>
+      </c>
+      <c r="F157" s="39">
+        <v>1.1048744811278901</v>
+      </c>
+      <c r="G157" s="39">
+        <v>0.41760330100084497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B158" s="38">
+        <v>9</v>
+      </c>
+      <c r="C158" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158" s="38">
+        <v>7</v>
+      </c>
+      <c r="E158" s="39">
+        <v>-36.777142857142898</v>
+      </c>
+      <c r="F158" s="39">
+        <v>0.83298087784602903</v>
+      </c>
+      <c r="G158" s="39">
+        <v>0.31483717852183801</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B159" s="38">
+        <v>11</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D159" s="38">
+        <v>7</v>
+      </c>
+      <c r="E159" s="39">
+        <v>-35.892857142857103</v>
+      </c>
+      <c r="F159" s="39">
+        <v>0.69081387473313605</v>
+      </c>
+      <c r="G159" s="39">
+        <v>0.26110310211097199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B160" s="38">
+        <v>11</v>
+      </c>
+      <c r="C160" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D160" s="38">
+        <v>7</v>
+      </c>
+      <c r="E160" s="39">
+        <v>-38.594285714285697</v>
+      </c>
+      <c r="F160" s="39">
+        <v>0.41226436271148398</v>
+      </c>
+      <c r="G160" s="39">
+        <v>0.15582128259273101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" s="38">
+        <v>11</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D161" s="38">
+        <v>7</v>
+      </c>
+      <c r="E161" s="39">
+        <v>-15.54</v>
+      </c>
+      <c r="F161" s="39">
+        <v>0.65281441977538002</v>
+      </c>
+      <c r="G161" s="39">
+        <v>0.24674065814322599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B162" s="38">
+        <v>11</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D162" s="38">
+        <v>7</v>
+      </c>
+      <c r="E162" s="39">
+        <v>-17.46</v>
+      </c>
+      <c r="F162" s="39">
+        <v>0.26210684844162302</v>
+      </c>
+      <c r="G162" s="39">
+        <v>9.9067076843347396E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B163" s="38">
+        <v>11</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D163" s="38">
+        <v>7</v>
+      </c>
+      <c r="E163" s="39">
+        <v>-35.291428571428597</v>
+      </c>
+      <c r="F163" s="39">
+        <v>0.41546875419733698</v>
+      </c>
+      <c r="G163" s="39">
+        <v>0.15703242873199699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B164" s="38">
+        <v>11</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D164" s="38">
+        <v>7</v>
+      </c>
+      <c r="E164" s="39">
+        <v>-36.691428571428602</v>
+      </c>
+      <c r="F164" s="39">
+        <v>0.49269424499137299</v>
+      </c>
+      <c r="G164" s="39">
+        <v>0.18622092066284299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B165" s="38">
+        <v>12</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D165" s="38">
+        <v>7</v>
+      </c>
+      <c r="E165" s="39">
+        <v>-32.882857142857098</v>
+      </c>
+      <c r="F165" s="39">
+        <v>1.09769021564547</v>
+      </c>
+      <c r="G165" s="39">
+        <v>0.41488790388382701</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B166" s="38">
+        <v>12</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D166" s="38">
+        <v>7</v>
+      </c>
+      <c r="E166" s="39">
+        <v>-34.152857142857101</v>
+      </c>
+      <c r="F166" s="39">
+        <v>0.73576976212477097</v>
+      </c>
+      <c r="G166" s="39">
+        <v>0.27809483039761401</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B167" s="38">
+        <v>14</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D167" s="38">
+        <v>7</v>
+      </c>
+      <c r="E167" s="39">
+        <v>-37.31</v>
+      </c>
+      <c r="F167" s="39">
+        <v>0.93553906029269396</v>
+      </c>
+      <c r="G167" s="39">
+        <v>0.353600527903076</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B168" s="38">
+        <v>14</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D168" s="38">
+        <v>7</v>
+      </c>
+      <c r="E168" s="39">
+        <v>-39.102857142857097</v>
+      </c>
+      <c r="F168" s="39">
+        <v>8.8452300839545306E-2</v>
+      </c>
+      <c r="G168" s="39">
+        <v>3.3431827273272402E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" s="38">
+        <v>14</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D169" s="38">
+        <v>7</v>
+      </c>
+      <c r="E169" s="39">
+        <v>-32.32</v>
+      </c>
+      <c r="F169" s="39">
+        <v>1.1430077281745199</v>
+      </c>
+      <c r="G169" s="39">
+        <v>0.43201631362495502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B170" s="38">
+        <v>14</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D170" s="38">
+        <v>7</v>
+      </c>
+      <c r="E170" s="39">
+        <v>-33.784285714285701</v>
+      </c>
+      <c r="F170" s="39">
+        <v>0.91560284590458296</v>
+      </c>
+      <c r="G170" s="39">
+        <v>0.34606534713807402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B171" s="38">
+        <v>14</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D171" s="38">
+        <v>7</v>
+      </c>
+      <c r="E171" s="39">
+        <v>-15.9857142857143</v>
+      </c>
+      <c r="F171" s="39">
+        <v>0.40020232978070602</v>
+      </c>
+      <c r="G171" s="39">
+        <v>0.15126226267262899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B172" s="38">
+        <v>14</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D172" s="38">
+        <v>7</v>
+      </c>
+      <c r="E172" s="39">
+        <v>-17.961428571428598</v>
+      </c>
+      <c r="F172" s="39">
+        <v>0.34724768160630298</v>
+      </c>
+      <c r="G172" s="39">
+        <v>0.131247286982002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="38">
+        <v>14</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" s="38">
+        <v>7</v>
+      </c>
+      <c r="E173" s="39">
+        <v>-35.235714285714302</v>
+      </c>
+      <c r="F173" s="39">
+        <v>0.49253958023212502</v>
+      </c>
+      <c r="G173" s="39">
+        <v>0.18616246287862101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B174" s="38">
+        <v>14</v>
+      </c>
+      <c r="C174" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D174" s="38">
+        <v>7</v>
+      </c>
+      <c r="E174" s="39">
+        <v>-36.72</v>
+      </c>
+      <c r="F174" s="39">
+        <v>0.39272551907576903</v>
+      </c>
+      <c r="G174" s="39">
+        <v>0.14843629385474799</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B175" s="38">
+        <v>0</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D175" s="38">
+        <v>7</v>
+      </c>
+      <c r="E175" s="39">
+        <v>-27.487142857142899</v>
+      </c>
+      <c r="F175" s="39">
+        <v>0.75320900786156897</v>
+      </c>
+      <c r="G175" s="39">
+        <v>0.28468624572220103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B176" s="38">
+        <v>0</v>
+      </c>
+      <c r="C176" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D176" s="38">
+        <v>7</v>
+      </c>
+      <c r="E176" s="39">
+        <v>-31.064285714285699</v>
+      </c>
+      <c r="F176" s="39">
+        <v>0.71588772729754102</v>
+      </c>
+      <c r="G176" s="39">
+        <v>0.27058012758178901</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B177" s="38">
+        <v>0</v>
+      </c>
+      <c r="C177" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D177" s="38">
+        <v>7</v>
+      </c>
+      <c r="E177" s="39">
+        <v>-32.26</v>
+      </c>
+      <c r="F177" s="39">
+        <v>1.0476640682967</v>
+      </c>
+      <c r="G177" s="39">
+        <v>0.39597979746446599</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B178" s="38">
+        <v>0</v>
+      </c>
+      <c r="C178" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D178" s="38">
+        <v>7</v>
+      </c>
+      <c r="E178" s="39">
+        <v>-33.341428571428601</v>
+      </c>
+      <c r="F178" s="39">
+        <v>0.80252577469363495</v>
+      </c>
+      <c r="G178" s="39">
+        <v>0.30332623150840099</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B179" s="38">
+        <v>0</v>
+      </c>
+      <c r="C179" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D179" s="38">
+        <v>7</v>
+      </c>
+      <c r="E179" s="39">
+        <v>-12.2457142857143</v>
+      </c>
+      <c r="F179" s="39">
+        <v>0.32191391928366703</v>
+      </c>
+      <c r="G179" s="39">
+        <v>0.12167202485638599</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B180" s="38">
+        <v>0</v>
+      </c>
+      <c r="C180" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D180" s="38">
+        <v>7</v>
+      </c>
+      <c r="E180" s="39">
+        <v>-12.894285714285701</v>
+      </c>
+      <c r="F180" s="39">
+        <v>0.88370163031906401</v>
+      </c>
+      <c r="G180" s="39">
+        <v>0.33400782100094001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B181" s="38">
+        <v>0</v>
+      </c>
+      <c r="C181" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D181" s="38">
+        <v>7</v>
+      </c>
+      <c r="E181" s="39">
+        <v>-32.728571428571399</v>
+      </c>
+      <c r="F181" s="39">
+        <v>0.92672233474449395</v>
+      </c>
+      <c r="G181" s="39">
+        <v>0.35026811887758302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B182" s="38">
+        <v>0</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D182" s="38">
+        <v>7</v>
+      </c>
+      <c r="E182" s="39">
+        <v>-35.284285714285701</v>
+      </c>
+      <c r="F182" s="39">
+        <v>0.52149966899501099</v>
+      </c>
+      <c r="G182" s="39">
+        <v>0.197108347566186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B183" s="38">
+        <v>1</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="38">
+        <v>7</v>
+      </c>
+      <c r="E183" s="39">
+        <v>-33.6885714285714</v>
+      </c>
+      <c r="F183" s="39">
+        <v>1.48128804954144</v>
+      </c>
+      <c r="G183" s="39">
+        <v>0.55987425701979698</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="38">
+        <v>1</v>
+      </c>
+      <c r="C184" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D184" s="38">
+        <v>7</v>
+      </c>
+      <c r="E184" s="39">
+        <v>-35.828571428571401</v>
+      </c>
+      <c r="F184" s="39">
+        <v>1.85469160573421</v>
+      </c>
+      <c r="G184" s="39">
+        <v>0.70100753535596905</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B185" s="38">
+        <v>2</v>
+      </c>
+      <c r="C185" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D185" s="38">
+        <v>7</v>
+      </c>
+      <c r="E185" s="39">
+        <v>-30.842857142857099</v>
+      </c>
+      <c r="F185" s="39">
+        <v>1.4125829094925599</v>
+      </c>
+      <c r="G185" s="39">
+        <v>0.53390615496819804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B186" s="38">
+        <v>2</v>
+      </c>
+      <c r="C186" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" s="38">
+        <v>7</v>
+      </c>
+      <c r="E186" s="39">
+        <v>-33.577142857142903</v>
+      </c>
+      <c r="F186" s="39">
+        <v>0.80640590039413695</v>
+      </c>
+      <c r="G186" s="39">
+        <v>0.30479278117400099</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" s="38">
+        <v>2</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D187" s="38">
+        <v>7</v>
+      </c>
+      <c r="E187" s="39">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="F187" s="39">
+        <v>1.1068724708233899</v>
+      </c>
+      <c r="G187" s="39">
+        <v>0.418358470123182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B188" s="38">
+        <v>2</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D188" s="38">
+        <v>7</v>
+      </c>
+      <c r="E188" s="39">
+        <v>-34.358571428571402</v>
+      </c>
+      <c r="F188" s="39">
+        <v>0.57972489370472202</v>
+      </c>
+      <c r="G188" s="39">
+        <v>0.21911541393943601</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189" s="38">
+        <v>2</v>
+      </c>
+      <c r="C189" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D189" s="38">
+        <v>7</v>
+      </c>
+      <c r="E189" s="39">
+        <v>-13.7085714285714</v>
+      </c>
+      <c r="F189" s="39">
+        <v>0.74064000637801097</v>
+      </c>
+      <c r="G189" s="39">
+        <v>0.27993560970021503</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B190" s="38">
+        <v>2</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D190" s="38">
+        <v>7</v>
+      </c>
+      <c r="E190" s="39">
+        <v>-15.7042857142857</v>
+      </c>
+      <c r="F190" s="39">
+        <v>0.60898432226281896</v>
+      </c>
+      <c r="G190" s="39">
+        <v>0.230174438434948</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B191" s="38">
+        <v>3</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D191" s="38">
+        <v>7</v>
+      </c>
+      <c r="E191" s="39">
+        <v>-36.084285714285699</v>
+      </c>
+      <c r="F191" s="39">
+        <v>0.819265059730512</v>
+      </c>
+      <c r="G191" s="39">
+        <v>0.309653086555916</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B192" s="38">
+        <v>3</v>
+      </c>
+      <c r="C192" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D192" s="38">
+        <v>7</v>
+      </c>
+      <c r="E192" s="39">
+        <v>-37.848571428571397</v>
+      </c>
+      <c r="F192" s="39">
+        <v>0.62432439675296503</v>
+      </c>
+      <c r="G192" s="39">
+        <v>0.23597244160553801</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" s="38">
+        <v>4</v>
+      </c>
+      <c r="C193" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D193" s="38">
+        <v>7</v>
+      </c>
+      <c r="E193" s="39">
+        <v>-32.44</v>
+      </c>
+      <c r="F193" s="39">
+        <v>1.53279700765192</v>
+      </c>
+      <c r="G193" s="39">
+        <v>0.57934281322727699</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B194" s="38">
+        <v>4</v>
+      </c>
+      <c r="C194" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D194" s="38">
+        <v>7</v>
+      </c>
+      <c r="E194" s="39">
+        <v>-35.674285714285702</v>
+      </c>
+      <c r="F194" s="39">
+        <v>0.60019044596575399</v>
+      </c>
+      <c r="G194" s="39">
+        <v>0.226850665614619</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B195" s="38">
+        <v>4</v>
+      </c>
+      <c r="C195" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D195" s="38">
+        <v>7</v>
+      </c>
+      <c r="E195" s="39">
+        <v>-13.8857142857143</v>
+      </c>
+      <c r="F195" s="39">
+        <v>0.48863268900259299</v>
+      </c>
+      <c r="G195" s="39">
+        <v>0.184685796793947</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196" s="38">
+        <v>4</v>
+      </c>
+      <c r="C196" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D196" s="38">
+        <v>7</v>
+      </c>
+      <c r="E196" s="39">
+        <v>-15.7214285714286</v>
+      </c>
+      <c r="F196" s="39">
+        <v>0.45101472893275502</v>
+      </c>
+      <c r="G196" s="39">
+        <v>0.17046754434046801</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" s="38">
+        <v>5</v>
+      </c>
+      <c r="C197" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D197" s="38">
+        <v>7</v>
+      </c>
+      <c r="E197" s="39">
+        <v>-34.361428571428597</v>
+      </c>
+      <c r="F197" s="39">
+        <v>0.58399282448298895</v>
+      </c>
+      <c r="G197" s="39">
+        <v>0.22072854014688301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B198" s="38">
+        <v>5</v>
+      </c>
+      <c r="C198" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D198" s="38">
+        <v>7</v>
+      </c>
+      <c r="E198" s="39">
+        <v>-35.112857142857102</v>
+      </c>
+      <c r="F198" s="39">
+        <v>0.51444838697107598</v>
+      </c>
+      <c r="G198" s="39">
+        <v>0.19444321347196999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B199" s="38">
+        <v>7</v>
+      </c>
+      <c r="C199" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D199" s="38">
+        <v>7</v>
+      </c>
+      <c r="E199" s="39">
+        <v>-35.1885714285714</v>
+      </c>
+      <c r="F199" s="39">
+        <v>1.12220658483526</v>
+      </c>
+      <c r="G199" s="39">
+        <v>0.42415422044474399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B200" s="38">
+        <v>7</v>
+      </c>
+      <c r="C200" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D200" s="38">
+        <v>7</v>
+      </c>
+      <c r="E200" s="39">
+        <v>-37.628571428571398</v>
+      </c>
+      <c r="F200" s="39">
+        <v>0.43422070315407402</v>
+      </c>
+      <c r="G200" s="39">
+        <v>0.16411999923732601</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B201" s="38">
+        <v>7</v>
+      </c>
+      <c r="C201" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D201" s="38">
+        <v>7</v>
+      </c>
+      <c r="E201" s="39">
+        <v>-34.632857142857098</v>
+      </c>
+      <c r="F201" s="39">
+        <v>1.01793441644856</v>
+      </c>
+      <c r="G201" s="39">
+        <v>0.384743045270937</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="38">
+        <v>7</v>
+      </c>
+      <c r="C202" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" s="38">
+        <v>7</v>
+      </c>
+      <c r="E202" s="39">
+        <v>-35.76</v>
+      </c>
+      <c r="F202" s="39">
+        <v>0.62947067710365301</v>
+      </c>
+      <c r="G202" s="39">
+        <v>0.23791755274624399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203" s="38">
+        <v>7</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D203" s="38">
+        <v>7</v>
+      </c>
+      <c r="E203" s="39">
+        <v>-14.828571428571401</v>
+      </c>
+      <c r="F203" s="39">
+        <v>0.749631655580005</v>
+      </c>
+      <c r="G203" s="39">
+        <v>0.28333413365233101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204" s="38">
+        <v>7</v>
+      </c>
+      <c r="C204" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D204" s="38">
+        <v>7</v>
+      </c>
+      <c r="E204" s="39">
+        <v>-16.3485714285714</v>
+      </c>
+      <c r="F204" s="39">
+        <v>0.79597798485947602</v>
+      </c>
+      <c r="G204" s="39">
+        <v>0.30085139957435802</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B205" s="38">
+        <v>7</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D205" s="38">
+        <v>7</v>
+      </c>
+      <c r="E205" s="39">
+        <v>-36.29</v>
+      </c>
+      <c r="F205" s="39">
+        <v>0.14742229591664099</v>
+      </c>
+      <c r="G205" s="39">
+        <v>5.5720390385943598E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206" s="38">
+        <v>7</v>
+      </c>
+      <c r="C206" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D206" s="38">
+        <v>7</v>
+      </c>
+      <c r="E206" s="39">
+        <v>-37.18</v>
+      </c>
+      <c r="F206" s="39">
+        <v>0.20428737928059301</v>
+      </c>
+      <c r="G206" s="39">
+        <v>7.7213371652225596E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B207" s="38">
+        <v>9</v>
+      </c>
+      <c r="C207" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D207" s="38">
+        <v>7</v>
+      </c>
+      <c r="E207" s="39">
+        <v>-35.862857142857102</v>
+      </c>
+      <c r="F207" s="39">
+        <v>1.2032693559037999</v>
+      </c>
+      <c r="G207" s="39">
+        <v>0.45479306799233099</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" s="38">
+        <v>9</v>
+      </c>
+      <c r="C208" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D208" s="38">
+        <v>7</v>
+      </c>
+      <c r="E208" s="39">
+        <v>-38.15</v>
+      </c>
+      <c r="F208" s="39">
+        <v>0.23352373184182601</v>
+      </c>
+      <c r="G208" s="39">
+        <v>8.8263674240743994E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" s="38">
+        <v>9</v>
+      </c>
+      <c r="C209" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D209" s="38">
+        <v>7</v>
+      </c>
+      <c r="E209" s="39">
+        <v>-34.157142857142901</v>
+      </c>
+      <c r="F209" s="39">
+        <v>0.58208574069788799</v>
+      </c>
+      <c r="G209" s="39">
+        <v>0.220007730229063</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="38">
+        <v>9</v>
+      </c>
+      <c r="C210" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D210" s="38">
+        <v>7</v>
+      </c>
+      <c r="E210" s="39">
+        <v>-35.935714285714297</v>
+      </c>
+      <c r="F210" s="39">
+        <v>0.59143489759671697</v>
+      </c>
+      <c r="G210" s="39">
+        <v>0.22354137938940899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="38">
+        <v>9</v>
+      </c>
+      <c r="C211" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D211" s="38">
+        <v>7</v>
+      </c>
+      <c r="E211" s="39">
+        <v>-15.28</v>
+      </c>
+      <c r="F211" s="39">
+        <v>0.74161984870956699</v>
+      </c>
+      <c r="G211" s="39">
+        <v>0.28030595529069402</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" s="38">
+        <v>9</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D212" s="38">
+        <v>7</v>
+      </c>
+      <c r="E212" s="39">
+        <v>-16.941428571428599</v>
+      </c>
+      <c r="F212" s="39">
+        <v>0.52985622488333495</v>
+      </c>
+      <c r="G212" s="39">
+        <v>0.20026682880868801</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="38">
+        <v>9</v>
+      </c>
+      <c r="C213" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D213" s="38">
+        <v>7</v>
+      </c>
+      <c r="E213" s="39">
+        <v>-36.478571428571399</v>
+      </c>
+      <c r="F213" s="39">
+        <v>0.45060805479664601</v>
+      </c>
+      <c r="G213" s="39">
+        <v>0.170313835964927</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="38">
+        <v>9</v>
+      </c>
+      <c r="C214" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D214" s="38">
+        <v>7</v>
+      </c>
+      <c r="E214" s="39">
+        <v>-37.291428571428597</v>
+      </c>
+      <c r="F214" s="39">
+        <v>0.39968439930477601</v>
+      </c>
+      <c r="G214" s="39">
+        <v>0.15106650335323901</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="38">
+        <v>11</v>
+      </c>
+      <c r="C215" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D215" s="38">
+        <v>7</v>
+      </c>
+      <c r="E215" s="39">
+        <v>-35.911428571428601</v>
+      </c>
+      <c r="F215" s="39">
+        <v>1.0790802962311401</v>
+      </c>
+      <c r="G215" s="39">
+        <v>0.40785401549964401</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216" s="38">
+        <v>11</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="38">
+        <v>7</v>
+      </c>
+      <c r="E216" s="39">
+        <v>-38.468571428571401</v>
+      </c>
+      <c r="F216" s="39">
+        <v>0.24044601413682201</v>
+      </c>
+      <c r="G216" s="39">
+        <v>9.0880051020393093E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217" s="38">
+        <v>11</v>
+      </c>
+      <c r="C217" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="38">
+        <v>7</v>
+      </c>
+      <c r="E217" s="39">
+        <v>-15.3714285714286</v>
+      </c>
+      <c r="F217" s="39">
+        <v>0.62309519260512602</v>
+      </c>
+      <c r="G217" s="39">
+        <v>0.23550784610757899</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" s="38">
+        <v>11</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D218" s="38">
+        <v>7</v>
+      </c>
+      <c r="E218" s="39">
+        <v>-17.2014285714286</v>
+      </c>
+      <c r="F218" s="39">
+        <v>0.33248702087092002</v>
+      </c>
+      <c r="G218" s="39">
+        <v>0.125668281625885</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B219" s="38">
+        <v>11</v>
+      </c>
+      <c r="C219" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D219" s="38">
+        <v>7</v>
+      </c>
+      <c r="E219" s="39">
+        <v>-36.587142857142901</v>
+      </c>
+      <c r="F219" s="39">
+        <v>0.40190024822561299</v>
+      </c>
+      <c r="G219" s="39">
+        <v>0.151904015522871</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B220" s="38">
+        <v>11</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D220" s="38">
+        <v>7</v>
+      </c>
+      <c r="E220" s="39">
+        <v>-37.35</v>
+      </c>
+      <c r="F220" s="39">
+        <v>0.23783747952470999</v>
+      </c>
+      <c r="G220" s="39">
+        <v>8.9894117610399796E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B221" s="38">
+        <v>12</v>
+      </c>
+      <c r="C221" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D221" s="38">
+        <v>7</v>
+      </c>
+      <c r="E221" s="39">
+        <v>-32.945714285714303</v>
+      </c>
+      <c r="F221" s="39">
+        <v>1.31242596163056</v>
+      </c>
+      <c r="G221" s="39">
+        <v>0.49605038695132297</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B222" s="38">
+        <v>12</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D222" s="38">
+        <v>7</v>
+      </c>
+      <c r="E222" s="39">
+        <v>-34.53</v>
+      </c>
+      <c r="F222" s="39">
+        <v>1.31233887899937</v>
+      </c>
+      <c r="G222" s="39">
+        <v>0.496017472810518</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223" s="38">
+        <v>14</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D223" s="38">
+        <v>7</v>
+      </c>
+      <c r="E223" s="39">
+        <v>-37.677142857142897</v>
+      </c>
+      <c r="F223" s="39">
+        <v>0.34523973727031498</v>
+      </c>
+      <c r="G223" s="39">
+        <v>0.13048835535921899</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B224" s="38">
+        <v>14</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D224" s="38">
+        <v>7</v>
+      </c>
+      <c r="E224" s="39">
+        <v>-39.068571428571403</v>
+      </c>
+      <c r="F224" s="39">
+        <v>0.46599100747505701</v>
+      </c>
+      <c r="G224" s="39">
+        <v>0.17612804556734901</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B225" s="38">
+        <v>14</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D225" s="38">
+        <v>7</v>
+      </c>
+      <c r="E225" s="39">
+        <v>-32.407142857142901</v>
+      </c>
+      <c r="F225" s="39">
+        <v>1.8279105948752401</v>
+      </c>
+      <c r="G225" s="39">
+        <v>0.690885264700002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B226" s="38">
+        <v>14</v>
+      </c>
+      <c r="C226" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D226" s="38">
+        <v>7</v>
+      </c>
+      <c r="E226" s="39">
+        <v>-34.6357142857143</v>
+      </c>
+      <c r="F226" s="39">
+        <v>1.2189866986266</v>
+      </c>
+      <c r="G226" s="39">
+        <v>0.46073366515165898</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B227" s="38">
+        <v>14</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D227" s="38">
+        <v>7</v>
+      </c>
+      <c r="E227" s="39">
+        <v>-16.738571428571401</v>
+      </c>
+      <c r="F227" s="39">
+        <v>0.223041742836669</v>
+      </c>
+      <c r="G227" s="39">
+        <v>8.4301854790321304E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B228" s="38">
+        <v>14</v>
+      </c>
+      <c r="C228" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D228" s="38">
+        <v>7</v>
+      </c>
+      <c r="E228" s="39">
+        <v>-17.312857142857101</v>
+      </c>
+      <c r="F228" s="39">
+        <v>0.192415720573474</v>
+      </c>
+      <c r="G228" s="39">
+        <v>7.2726306425243803E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B229" s="38">
+        <v>14</v>
+      </c>
+      <c r="C229" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D229" s="38">
+        <v>7</v>
+      </c>
+      <c r="E229" s="39">
+        <v>-36.275714285714301</v>
+      </c>
+      <c r="F229" s="39">
+        <v>0.44758079877109602</v>
+      </c>
+      <c r="G229" s="39">
+        <v>0.16916964073656601</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B230" s="38">
+        <v>14</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D230" s="38">
+        <v>7</v>
+      </c>
+      <c r="E230" s="39">
+        <v>-36.8728571428571</v>
+      </c>
+      <c r="F230" s="39">
+        <v>0.52907826408179903</v>
+      </c>
+      <c r="G230" s="39">
+        <v>0.199972787264314</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8C5C5F-88C1-4356-B84D-2C2B3E287910}">
   <dimension ref="A1:H102"/>
   <sheetViews>
@@ -1382,7 +6689,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1469,7 +6776,7 @@
         <v>249.0839</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
         <v>122</v>
@@ -1638,7 +6945,7 @@
         <v>768.39400000000001</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>122</v>
@@ -1810,7 +7117,7 @@
         <v>31.773</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G35" t="s">
         <v>122</v>
@@ -1985,7 +7292,7 @@
         <v>63.077199999999998</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G47" t="s">
         <v>122</v>
@@ -2157,7 +7464,7 @@
         <v>149.1721</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G60" t="s">
         <v>122</v>
@@ -2329,7 +7636,7 @@
         <v>231.87450000000001</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G72" t="s">
         <v>122</v>
@@ -2481,7 +7788,7 @@
         <v>61.479900000000001</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G84" t="s">
         <v>122</v>
@@ -2504,7 +7811,7 @@
         <v>210.8502</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G85" t="s">
         <v>122</v>
@@ -2656,7 +7963,7 @@
         <v>47.802799999999998</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G96" t="s">
         <v>122</v>
@@ -2679,7 +7986,7 @@
         <v>87.474000000000004</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G97" t="s">
         <v>122</v>
@@ -2702,7 +8009,7 @@
         <v>9.7965999999999998</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G98" t="s">
         <v>122</v>
@@ -2776,19 +8083,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E0E9C-5AC7-4095-B085-BD64FFD9B693}">
   <dimension ref="A1:H520"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8537,16 +13842,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FB93C6-0778-4F99-B1A3-133ED5E9BF6D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8558,7 +13861,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10013,13 +15316,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37239465-76AF-4EE1-8B0F-9533E7F5CF30}">
   <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10028,7 +15329,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -14277,15 +19578,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0067E492-B4A5-4E75-AECD-DA5DE7917A5A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14298,7 +19599,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>

--- a/13C_Statistics_Summary_2.0.xlsx
+++ b/13C_Statistics_Summary_2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FTrevisan\Documents\GitHub\13C-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6EDA36-2685-4A4B-A591-C29A53B4FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C11DF-A911-41BB-9545-A4F0AF420F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -695,7 +695,45 @@
     <t>P/Fe</t>
   </si>
   <si>
-    <t>Mean Fresh Weight (g)</t>
+    <t>Summary table</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA on treatments</t>
+  </si>
+  <si>
+    <t>Tukey.HSD multiple comparison on treatments</t>
+  </si>
+  <si>
+    <t>One-Way ANOVA on time</t>
+  </si>
+  <si>
+    <t>Tukey.HSD multiple comparison on time</t>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
   </si>
   <si>
     <r>
@@ -717,30 +755,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table summarizing the statistical analyses performed on the δ13C results shown in the article main text (Figure 3). The table is divided in six sections: summary table for number of replicates (N), mean fresh weight, standard deviation (sd) and standard error (se), Two-Way Anova, One-Way Anova on treatments, Tukey.HSD multiple comparison on treatments, One-Way Anova on time and Tukey.HSD multiple comparison on time. BR= Barley Root; BS=Barley Shoot; CR= Cucumber Root; CS=Cucumber Shoot; MR= Maize Root; MS=Maize Shoot; TS=Tomato Shoot; TR= Tomato Root.</t>
+      <t>Table summarizing the statistical analyses performed on the δ</t>
     </r>
-  </si>
-  <si>
-    <t>Summary table</t>
-  </si>
-  <si>
-    <t>One-Way ANOVA on treatments</t>
-  </si>
-  <si>
-    <t>Tukey.HSD multiple comparison on treatments</t>
-  </si>
-  <si>
-    <t>One-Way ANOVA on time</t>
-  </si>
-  <si>
-    <t>Tukey.HSD multiple comparison on time</t>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C results shown in the article main text (Figure 3). The table is divided in six sections: summary table for number of replicates (N), stable carbon isotope ratio value (δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C), standard deviation (sd) and standard error (se), Two-Way Anova, One-Way Anova on treatments, Tukey.HSD multiple comparison on treatments, One-Way Anova on time and Tukey.HSD multiple comparison on time. BR= Barley Root; BS=Barley Shoot; CR= Cucumber Root; CS=Cucumber Shoot; MR= Maize Root; MS=Maize Shoot; TS=Tomato Shoot; TR= Tomato Root.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +860,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1172,11 +1245,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1460,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0E1125-5619-4A85-B113-0F8D8B444993}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,23 +1547,23 @@
     <col min="6" max="7" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+    <row r="1" spans="1:7" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1577,7 @@
         <v>201</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>202</v>
@@ -6670,6 +6743,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8093,7 +8167,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13861,7 +13935,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15329,7 +15403,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -19585,7 +19659,7 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -19599,7 +19673,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
